--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guzziplus/Desktop/University/Year 5/SEM 2/PRT585/S20PRT585_Group-A/augustine_thor_s290428/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81C2CBB-EF2D-BA49-9093-8081D46D5B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD0D78B-E299-412E-B19F-ADB0B180A448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="880" windowWidth="28040" windowHeight="17440" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>WEE</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t xml:space="preserve">TIME (HR) </t>
+  </si>
+  <si>
+    <t>Installed SQL Express - Visual Studio 2019 - ReSharper - Completed HelloWorld Project</t>
+  </si>
+  <si>
+    <t>Team meeting discussion on tuturial - adding controller - add View</t>
+  </si>
+  <si>
+    <t>Completed Add Controller tuturial</t>
+  </si>
+  <si>
+    <t>Completed Add View tuturial</t>
   </si>
 </sst>
 </file>
@@ -443,16 +455,17 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="91.33203125" customWidth="1"/>
+    <col min="2" max="2" width="91.375" customWidth="1"/>
+    <col min="3" max="3" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -463,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -474,64 +487,93 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -547,7 +589,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -561,9 +603,9 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -591,9 +633,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -609,7 +651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -621,9 +663,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -639,7 +681,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -651,7 +693,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -663,7 +705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD0D78B-E299-412E-B19F-ADB0B180A448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C3A73D-DE19-454C-AF98-3C011A71F688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WEE</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Completed Add View tuturial</t>
+  </si>
+  <si>
+    <t>Completed Add Model Tuturial</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,14 +528,30 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>44040</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44040</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44040</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C3A73D-DE19-454C-AF98-3C011A71F688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD81F6-367C-4D6C-B2FD-BC9D19FB356F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="765" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>WEE</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Installed SQL Express - Visual Studio 2019 - ReSharper - Completed HelloWorld Project</t>
   </si>
   <si>
-    <t>Team meeting discussion on tuturial - adding controller - add View</t>
-  </si>
-  <si>
     <t>Completed Add Controller tuturial</t>
   </si>
   <si>
@@ -81,6 +78,15 @@
   </si>
   <si>
     <t>Completed Add Model Tuturial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helped teammate complete Database tuturial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting discussion on tuturial - adding controller - add View - databases - any errors in the tuturial </t>
+  </si>
+  <si>
+    <t>Finished Search Tuturial</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>44040</v>
@@ -517,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4">
         <v>44040</v>
@@ -528,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>44040</v>
@@ -538,6 +544,9 @@
       <c r="A7" s="5">
         <v>1</v>
       </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="4">
         <v>44040</v>
       </c>
@@ -547,14 +556,22 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>44040</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44040</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD81F6-367C-4D6C-B2FD-BC9D19FB356F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2AACF9-34EC-4D2C-A31B-A54240D1DA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="1350" windowWidth="21600" windowHeight="11385" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="2160" yWindow="1680" windowWidth="17280" windowHeight="9024" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>WEE</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Finished Search Tuturial</t>
+  </si>
+  <si>
+    <t>Team discussion on search tuturial - dependancy injection and routing - scaffold not building</t>
+  </si>
+  <si>
+    <t>Helping teamate debug missing files error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team discussion - completed Part 8 together </t>
   </si>
 </sst>
 </file>
@@ -464,17 +473,17 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="91.375" customWidth="1"/>
+    <col min="2" max="2" width="91.3984375" customWidth="1"/>
     <col min="3" max="3" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -485,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -496,7 +505,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -507,7 +516,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -518,7 +527,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -529,7 +538,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -540,7 +549,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -551,7 +560,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -562,7 +571,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -573,43 +582,69 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -625,7 +660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -639,9 +674,9 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -669,9 +704,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -687,7 +722,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,9 +734,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -717,7 +752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -729,7 +764,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -741,7 +776,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2AACF9-34EC-4D2C-A31B-A54240D1DA27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FFE7A-DC44-4F1B-8960-D35AD5511F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="1680" windowWidth="17280" windowHeight="9024" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>WEE</t>
   </si>
@@ -92,10 +92,13 @@
     <t>Team discussion on search tuturial - dependancy injection and routing - scaffold not building</t>
   </si>
   <si>
-    <t>Helping teamate debug missing files error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team discussion - completed Part 8 together </t>
+    <t>Helping teamate debug missing files error and namespace error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team discussion - completed Part 8-10 together </t>
+  </si>
+  <si>
+    <t>Started adding bootstrap to project</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -606,7 +609,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -618,6 +621,12 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44041</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FFE7A-DC44-4F1B-8960-D35AD5511F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7BB4B-0BA6-46DB-8626-7E36F5153388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1680" windowWidth="17280" windowHeight="9024" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="32985" yWindow="3570" windowWidth="17280" windowHeight="9030" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>WEE</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Team discussion on assignments and ensuring git hub repo set up</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTOL </t>
-  </si>
-  <si>
     <t xml:space="preserve">TIME (HR) </t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t xml:space="preserve">Team discussion - completed Part 8-10 together </t>
-  </si>
-  <si>
-    <t>Started adding bootstrap to project</t>
   </si>
 </sst>
 </file>
@@ -473,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C215C703-E494-EA47-B1E9-BAAE9D009904}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -488,7 +482,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -513,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>44039</v>
@@ -524,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>44040</v>
@@ -535,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4">
         <v>44040</v>
@@ -546,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>44040</v>
@@ -557,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>44040</v>
@@ -568,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>44040</v>
@@ -579,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>44040</v>
@@ -590,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4">
         <v>44040</v>
@@ -601,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4">
         <v>44041</v>
@@ -612,22 +606,15 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>44041</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4">
-        <v>44041</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
@@ -652,11 +639,6 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7BB4B-0BA6-46DB-8626-7E36F5153388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B14CAC8-2060-4A64-A194-3D702F045759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32985" yWindow="3570" windowWidth="17280" windowHeight="9030" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="32985" yWindow="3570" windowWidth="17280" windowHeight="9030" activeTab="1" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>WEE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>WE</t>
   </si>
@@ -93,6 +90,18 @@
   </si>
   <si>
     <t xml:space="preserve">Team discussion - completed Part 8-10 together </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual learning - created Books WebApp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team discussion "tags" - Nare's Tuturial - Problems </t>
+  </si>
+  <si>
+    <t>Researched into dependancy injection</t>
+  </si>
+  <si>
+    <t>Team meeting - Solution to no project problem - errors</t>
   </si>
 </sst>
 </file>
@@ -469,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C215C703-E494-EA47-B1E9-BAAE9D009904}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -482,13 +491,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -496,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>44036</v>
@@ -507,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>44039</v>
@@ -518,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>44040</v>
@@ -529,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>44040</v>
@@ -540,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4">
         <v>44040</v>
@@ -551,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <v>44040</v>
@@ -562,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>44040</v>
@@ -573,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>44040</v>
@@ -584,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>44040</v>
@@ -595,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>44041</v>
@@ -606,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>44041</v>
@@ -659,11 +668,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E16831-DC99-5C4F-A916-A47CAE6A1EBE}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="64.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97F7BC7-8064-8343-ADC7-3D9093D147CA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2EF10A-529C-014A-959F-A631C837892A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -677,8 +825,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97F7BC7-8064-8343-ADC7-3D9093D147CA}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDF081-FE1C-FC42-943F-B747505A65ED}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -689,8 +837,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2EF10A-529C-014A-959F-A631C837892A}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751A3E4-1F61-F34F-9B98-AA99D470C59F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -707,36 +855,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BDF081-FE1C-FC42-943F-B747505A65ED}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9751A3E4-1F61-F34F-9B98-AA99D470C59F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD1D272-BDB1-7643-AD54-BD51AEAF5AC1}">
   <dimension ref="A1"/>

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B14CAC8-2060-4A64-A194-3D702F045759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB7056-9C6B-417F-9969-A19A17067A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32985" yWindow="3570" windowWidth="17280" windowHeight="9030" activeTab="1" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>WE</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>Team meeting - Solution to no project problem - errors</t>
+  </si>
+  <si>
+    <t>Trying to get Category working</t>
+  </si>
+  <si>
+    <t>Team meeting Category debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting in person - Category problem </t>
   </si>
 </sst>
 </file>
@@ -671,7 +680,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -736,7 +745,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>44047</v>
@@ -746,16 +758,22 @@
       <c r="A7" s="5">
         <v>1</v>
       </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
       <c r="C7" s="4">
-        <v>44048</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="4">
-        <v>44049</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB7056-9C6B-417F-9969-A19A17067A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F30B8-9975-4966-A7C2-B549DD7C24CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>WE</t>
   </si>
@@ -111,13 +111,25 @@
   </si>
   <si>
     <t xml:space="preserve">Team meeting in person - Category problem </t>
+  </si>
+  <si>
+    <t>Difference between MVC and MVVM</t>
+  </si>
+  <si>
+    <t>ORM and what problem this tool solves?</t>
+  </si>
+  <si>
+    <t>AntiForgery token in MVC</t>
+  </si>
+  <si>
+    <t>Web Api Tuturial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +141,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +197,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E16831-DC99-5C4F-A916-A47CAE6A1EBE}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -777,36 +808,20 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44050</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44051</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44052</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44053</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -815,13 +830,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97F7BC7-8064-8343-ADC7-3D9093D147CA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="35.3984375" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F30B8-9975-4966-A7C2-B549DD7C24CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C5F4A-F336-4C5E-B44F-A4C51B35DE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" activeTab="2" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>WE</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Web Api Tuturial</t>
+  </si>
+  <si>
+    <t>Team discussion</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -899,8 +902,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44055</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>

--- a/timesheet_augustine_s290428.xlsx
+++ b/timesheet_augustine_s290428.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuzziFuzzy\Desktop\PRT585_Individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C5F4A-F336-4C5E-B44F-A4C51B35DE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24101114-C709-434C-AD75-57E0C78290C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{CB386F61-DAD6-E84A-BA9F-79A66EC42F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="WEEK1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>WE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>WEEK</t>
   </si>
@@ -126,6 +123,21 @@
   </si>
   <si>
     <t>Team discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular youtube </t>
+  </si>
+  <si>
+    <t>Meeting - SPA</t>
+  </si>
+  <si>
+    <t>Angular tuturial</t>
+  </si>
+  <si>
+    <t>Angular API discussion</t>
+  </si>
+  <si>
+    <t>angular api tuturial</t>
   </si>
 </sst>
 </file>
@@ -534,13 +546,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -548,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>44036</v>
@@ -559,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>44039</v>
@@ -570,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
         <v>44040</v>
@@ -581,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>44040</v>
@@ -592,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>44040</v>
@@ -603,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>44040</v>
@@ -614,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
         <v>44040</v>
@@ -625,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
         <v>44040</v>
@@ -636,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>44040</v>
@@ -647,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>44041</v>
@@ -658,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4">
         <v>44041</v>
@@ -724,13 +736,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -738,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>44046</v>
@@ -749,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4">
         <v>44046</v>
@@ -760,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4">
         <v>44046</v>
@@ -771,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>44046</v>
@@ -782,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
         <v>44047</v>
@@ -793,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>44047</v>
@@ -804,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>44048</v>
@@ -835,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97F7BC7-8064-8343-ADC7-3D9093D147CA}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -848,13 +860,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -862,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="7">
         <v>44053</v>
@@ -873,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="7">
         <v>44054</v>
@@ -884,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="7">
         <v>44054</v>
@@ -895,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7">
         <v>44054</v>
@@ -906,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>44055</v>
@@ -932,15 +944,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2EF10A-529C-014A-959F-A631C837892A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.796875" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44062</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +1049,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
